--- a/定投表.xlsx
+++ b/定投表.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27255" windowHeight="9210" activeTab="2"/>
+    <workbookView windowWidth="27255" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="嘉实沪港深" sheetId="1" r:id="rId1"/>
     <sheet name="东方红产业升级" sheetId="2" r:id="rId2"/>
     <sheet name="东方红中国优势" sheetId="3" r:id="rId3"/>
+    <sheet name="红利机会" sheetId="4" r:id="rId4"/>
+    <sheet name="上证50AH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -42,9 +44,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -980,8 +982,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1125,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1191,4 +1193,150 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-1483.82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1483.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>IRR(B1:B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(1+B3)^52-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>ABS(SUM(B1:B1))</f>
+        <v>1483.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(B2-ABS(B5))/ABS(B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-1504.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1504.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>IRR(B1:B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(1+B3)^52-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>ABS(SUM(B1:B1))</f>
+        <v>1504.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(B2-ABS(B5))/ABS(B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/定投表.xlsx
+++ b/定投表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27255" windowHeight="9210"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="嘉实沪港深" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>第一周</t>
+  </si>
+  <si>
+    <t>第二周</t>
   </si>
   <si>
     <t>期末总资产</t>
@@ -44,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,9 +61,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,114 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +213,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,60 +363,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,72 +370,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,45 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,26 +418,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +445,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="23.25" customWidth="1"/>
   </cols>
@@ -1004,43 +1007,51 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>IRR(B1:B2)</f>
-        <v>0</v>
+      <c r="B3">
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>(1+B3)^52-1</f>
-        <v>0</v>
+      <c r="B4" s="1">
+        <f>IRR(B1:B3)</f>
+        <v>-0.219223593595585</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>ABS(SUM(B1:B1))</f>
-        <v>4000</v>
+      <c r="B5" s="2">
+        <f>(1+B4)^52-1</f>
+        <v>-0.999997421379522</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>(B2-ABS(B5))/ABS(B5)</f>
-        <v>0</v>
+      <c r="B6">
+        <f>ABS(SUM(B1:B2))</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B3-ABS(B6))/ABS(B6)</f>
+        <v>-0.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1052,13 +1063,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -1077,43 +1088,51 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5057</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>IRR(B1:B2)</f>
-        <v>0</v>
+      <c r="B3">
+        <v>5057</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>(1+B3)^52-1</f>
-        <v>0</v>
+      <c r="B4" s="1">
+        <f>IRR(B1:B3)</f>
+        <v>-0.178381504307062</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>ABS(SUM(B1:B1))</f>
-        <v>5057</v>
+      <c r="B5" s="2">
+        <f>(1+B4)^52-1</f>
+        <v>-0.999963453080562</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>(B2-ABS(B5))/ABS(B5)</f>
-        <v>0</v>
+      <c r="B6">
+        <f>ABS(SUM(B1:B2))</f>
+        <v>7057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B3-ABS(B6))/ABS(B6)</f>
+        <v>-0.283406546691229</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1144,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
@@ -1150,43 +1169,51 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4978.41</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>IRR(B1:B2)</f>
-        <v>0</v>
+      <c r="B3">
+        <v>4978.41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>(1+B3)^52-1</f>
-        <v>0</v>
+      <c r="B4" s="1">
+        <f>IRR(B1:B3)</f>
+        <v>-0.180892987496174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>ABS(SUM(B1:B1))</f>
-        <v>4978.41</v>
+      <c r="B5" s="2">
+        <f>(1+B4)^52-1</f>
+        <v>-0.999968831673213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>(B2-ABS(B5))/ABS(B5)</f>
-        <v>0</v>
+      <c r="B6">
+        <f>ABS(SUM(B1:B2))</f>
+        <v>6978.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B3-ABS(B6))/ABS(B6)</f>
+        <v>-0.28659823656105</v>
       </c>
     </row>
   </sheetData>
@@ -1198,13 +1225,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
@@ -1223,43 +1250,51 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1483.82</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>IRR(B1:B2)</f>
-        <v>0</v>
+      <c r="B3">
+        <v>1483.82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>(1+B3)^52-1</f>
-        <v>0</v>
+      <c r="B4" s="1">
+        <f>IRR(B1:B3)</f>
+        <v>-0.281720495708011</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>ABS(SUM(B1:B1))</f>
-        <v>1483.82</v>
+      <c r="B5" s="2">
+        <f>(1+B4)^52-1</f>
+        <v>-0.99999996632864</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>(B2-ABS(B5))/ABS(B5)</f>
-        <v>0</v>
+      <c r="B6">
+        <f>ABS(SUM(B1:B2))</f>
+        <v>2483.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B3-ABS(B6))/ABS(B6)</f>
+        <v>-0.402605663856479</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1306,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
@@ -1296,43 +1331,51 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1504.25</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>IRR(B1:B2)</f>
-        <v>0</v>
+      <c r="B3">
+        <v>1504.25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>(1+B3)^52-1</f>
-        <v>0</v>
+      <c r="B4" s="1">
+        <f>IRR(B1:B3)</f>
+        <v>-0.278596440861304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>ABS(SUM(B1:B1))</f>
-        <v>1504.25</v>
+      <c r="B5" s="2">
+        <f>(1+B4)^52-1</f>
+        <v>-0.999999957804067</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <f>(B2-ABS(B5))/ABS(B5)</f>
-        <v>0</v>
+      <c r="B6">
+        <f>ABS(SUM(B1:B2))</f>
+        <v>2504.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B3-ABS(B6))/ABS(B6)</f>
+        <v>-0.399321154038135</v>
       </c>
     </row>
   </sheetData>

--- a/定投表.xlsx
+++ b/定投表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="嘉实沪港深" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,7 +61,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,10 +136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,30 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,52 +162,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,17 +175,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +213,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,13 +297,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,151 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,15 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -465,22 +480,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,8 +985,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4000</v>
+        <v>5999.29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
-        <v>-0.219223593595585</v>
+        <v>-7.10020165145542e-5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
-        <v>-0.999997421379522</v>
+        <v>-0.00368542801668925</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.333333333333333</v>
+        <v>-0.000118333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5057</v>
+        <v>7208.14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
-        <v>-0.178381504307062</v>
+        <v>0.0124121602992653</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
-        <v>-0.999963453080562</v>
+        <v>0.899250948305051</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.283406546691229</v>
+        <v>0.0214170327334562</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4978.41</v>
+        <v>7115.35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
-        <v>-0.180892987496174</v>
+        <v>0.0113987786436844</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
-        <v>-0.999968831673213</v>
+        <v>0.802876973943927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.28659823656105</v>
+        <v>0.0196233812573352</v>
       </c>
     </row>
   </sheetData>
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1483.82</v>
+        <v>2445.43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
-        <v>-0.281720495708011</v>
+        <v>-0.00971104504152953</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
-        <v>-0.99999996632864</v>
+        <v>-0.397966535733476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.402605663856479</v>
+        <v>-0.0154560314354504</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1504.25</v>
+        <v>2481.48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
-        <v>-0.278596440861304</v>
+        <v>-0.00569258976952314</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
-        <v>-0.999999957804067</v>
+        <v>-0.25685226949209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.399321154038135</v>
+        <v>-0.00909254267744833</v>
       </c>
     </row>
   </sheetData>

--- a/定投表.xlsx
+++ b/定投表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="嘉实沪港深" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,22 @@
     <sheet name="东方红中国优势" sheetId="3" r:id="rId3"/>
     <sheet name="红利机会" sheetId="4" r:id="rId4"/>
     <sheet name="上证50AH" sheetId="5" r:id="rId5"/>
+    <sheet name="中证低波动500" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>第一周</t>
   </si>
   <si>
     <t>第二周</t>
+  </si>
+  <si>
+    <t>第三周</t>
   </si>
   <si>
     <t>期末总资产</t>
@@ -46,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,12 +65,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -74,16 +132,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,108 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,181 +217,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +408,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,21 +451,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -457,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,24 +491,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -504,6 +499,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,13 +987,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="23.25" customWidth="1"/>
   </cols>
@@ -1015,43 +1019,51 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5999.29</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f>IRR(B1:B3)</f>
-        <v>-7.10020165145542e-5</v>
+      <c r="B4">
+        <v>7999.29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>(1+B4)^52-1</f>
-        <v>-0.00368542801668925</v>
+      <c r="B5" s="1">
+        <f>IRR(B1:B4)</f>
+        <v>-3.94456546216615e-5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>ABS(SUM(B1:B2))</f>
-        <v>6000</v>
+      <c r="B6" s="2">
+        <f>(1+B5)^52-1</f>
+        <v>-0.00204911219355697</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.000118333333333339</v>
+      <c r="B7">
+        <f>ABS(SUM(B1:B3))</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(B4-ABS(B7))/ABS(B7)</f>
+        <v>-8.87500000000045e-5</v>
       </c>
     </row>
   </sheetData>
@@ -1063,13 +1075,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -1096,43 +1108,51 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7208.14</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f>IRR(B1:B3)</f>
-        <v>0.0124121602992653</v>
+      <c r="B4">
+        <v>10208.14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>(1+B4)^52-1</f>
-        <v>0.899250948305051</v>
+      <c r="B5" s="1">
+        <f>IRR(B1:B4)</f>
+        <v>0.00678132653848751</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>ABS(SUM(B1:B2))</f>
-        <v>7057</v>
+      <c r="B6" s="2">
+        <f>(1+B5)^52-1</f>
+        <v>0.421110647333178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>0.0214170327334562</v>
+      <c r="B7">
+        <f>ABS(SUM(B1:B3))</f>
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(B4-ABS(B7))/ABS(B7)</f>
+        <v>0.0150283384707169</v>
       </c>
     </row>
   </sheetData>
@@ -1144,13 +1164,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
@@ -1177,43 +1197,51 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7115.35</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f>IRR(B1:B3)</f>
-        <v>0.0113987786436844</v>
+      <c r="B4">
+        <v>10115.35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>(1+B4)^52-1</f>
-        <v>0.802876973943927</v>
+      <c r="B5" s="1">
+        <f>IRR(B1:B4)</f>
+        <v>0.00621306768524832</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>ABS(SUM(B1:B2))</f>
-        <v>6978.41</v>
+      <c r="B6" s="2">
+        <f>(1+B5)^52-1</f>
+        <v>0.379995171279135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>0.0196233812573352</v>
+      <c r="B7">
+        <f>ABS(SUM(B1:B3))</f>
+        <v>9978.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(B4-ABS(B7))/ABS(B7)</f>
+        <v>0.0137236293156926</v>
       </c>
     </row>
   </sheetData>
@@ -1225,13 +1253,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
@@ -1258,43 +1286,51 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2445.43</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f>IRR(B1:B3)</f>
-        <v>-0.00971104504152953</v>
+      <c r="B4">
+        <v>3445.43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <f>(1+B4)^52-1</f>
-        <v>-0.397966535733476</v>
+      <c r="B5" s="1">
+        <f>IRR(B1:B4)</f>
+        <v>-0.00517154942106057</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>ABS(SUM(B1:B2))</f>
-        <v>2483.82</v>
+      <c r="B6" s="2">
+        <f>(1+B5)^52-1</f>
+        <v>-0.236329102199419</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.0154560314354504</v>
+      <c r="B7">
+        <f>ABS(SUM(B1:B3))</f>
+        <v>3483.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(B4-ABS(B7))/ABS(B7)</f>
+        <v>-0.0110195130632466</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1345,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1336,7 +1372,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2481.48</v>
@@ -1344,7 +1380,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f>IRR(B1:B3)</f>
@@ -1353,7 +1389,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <f>(1+B4)^52-1</f>
@@ -1362,7 +1398,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <f>ABS(SUM(B1:B2))</f>
@@ -1371,11 +1407,84 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <f>(B3-ABS(B6))/ABS(B6)</f>
         <v>-0.00909254267744833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-1484.12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1484.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <f>IRR(B1:B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(1+B3)^52-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>ABS(SUM(B1:B1))</f>
+        <v>1484.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(B2-ABS(B5))/ABS(B5)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/定投表.xlsx
+++ b/定投表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="嘉实沪港深" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>第一周</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>第四周</t>
+  </si>
+  <si>
+    <t>第5周</t>
   </si>
   <si>
     <t>期末总资产</t>
@@ -47,16 +50,19 @@
   <si>
     <t>实际收益率</t>
   </si>
+  <si>
+    <t>第五周</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +73,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -74,6 +88,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -82,42 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -128,14 +135,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,41 +149,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,8 +172,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,49 +226,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,121 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,45 +450,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,6 +482,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,31 +537,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,100 +570,100 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,10 +996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1038,43 +1044,51 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9977.55</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <f>IRR(B1:B5)</f>
-        <v>-0.000802521428529546</v>
+      <c r="B6">
+        <v>14412.61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(1+B6)^52-1</f>
-        <v>-0.0408884274835516</v>
+      <c r="B7" s="1">
+        <f>IRR(B1:B6)</f>
+        <v>-0.0139277843868315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>ABS(SUM(B1:B4))</f>
-        <v>10000</v>
+      <c r="B8" s="2">
+        <f>(1+B7)^52-1</f>
+        <v>-0.517770759778115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>(B5-ABS(B8))/ABS(B8)</f>
-        <v>-0.00224500000000007</v>
+      <c r="B9">
+        <f>ABS(SUM(B1:B5))</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B6-ABS(B9))/ABS(B9)</f>
+        <v>-0.0391593333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1100,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1135,43 +1149,51 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13105.91</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <f>IRR(B1:B5)</f>
-        <v>0.0013862364923134</v>
+      <c r="B6">
+        <v>17523.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(1+B6)^52-1</f>
-        <v>0.074692292192277</v>
+      <c r="B7" s="1">
+        <f>IRR(B1:B6)</f>
+        <v>-0.0101611131846053</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>ABS(SUM(B1:B4))</f>
-        <v>13057</v>
+      <c r="B8" s="2">
+        <f>(1+B7)^52-1</f>
+        <v>-0.412030770808804</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>(B5-ABS(B8))/ABS(B8)</f>
-        <v>0.00374588343417323</v>
+      <c r="B9">
+        <f>ABS(SUM(B1:B5))</f>
+        <v>18057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B6-ABS(B9))/ABS(B9)</f>
+        <v>-0.0295619427368887</v>
       </c>
     </row>
   </sheetData>
@@ -1183,10 +1205,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1232,43 +1254,51 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13069.02</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <f>IRR(B1:B5)</f>
-        <v>0.00258779425531475</v>
+      <c r="B6">
+        <v>17575.56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(1+B6)^52-1</f>
-        <v>0.143840531178355</v>
+      <c r="B7" s="1">
+        <f>IRR(B1:B6)</f>
+        <v>-0.00769861336832989</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>ABS(SUM(B1:B4))</f>
-        <v>12978.41</v>
+      <c r="B8" s="2">
+        <f>(1+B7)^52-1</f>
+        <v>-0.330936854161112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>(B5-ABS(B8))/ABS(B8)</f>
-        <v>0.00698159481785524</v>
+      <c r="B9">
+        <f>ABS(SUM(B1:B5))</f>
+        <v>17978.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B6-ABS(B9))/ABS(B9)</f>
+        <v>-0.0224074320254126</v>
       </c>
     </row>
   </sheetData>
@@ -1280,10 +1310,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1326,46 +1356,54 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4383.36</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <f>IRR(B1:B5)</f>
-        <v>-0.00276455738464054</v>
+      <c r="B6">
+        <v>5420.45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>(1+B6)^52-1</f>
-        <v>-0.134074206778956</v>
+      <c r="B7" s="1">
+        <f>IRR(B1:B6)</f>
+        <v>-0.0113702773913616</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>ABS(SUM(B1:B4))</f>
-        <v>4416.07</v>
+      <c r="B8" s="2">
+        <f>(1+B7)^52-1</f>
+        <v>-0.448239656217054</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>(B5-ABS(B8))/ABS(B8)</f>
-        <v>-0.00740703838480822</v>
+      <c r="B9">
+        <f>ABS(SUM(B1:B5))</f>
+        <v>5616.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B6-ABS(B9))/ABS(B9)</f>
+        <v>-0.0348321869207471</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1453,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3489.59</v>
@@ -1423,7 +1461,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <f>IRR(B1:B4)</f>
@@ -1432,7 +1470,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <f>(1+B5)^52-1</f>
@@ -1441,7 +1479,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>ABS(SUM(B1:B3))</f>
@@ -1450,7 +1488,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <f>(B4-ABS(B7))/ABS(B7)</f>
@@ -1466,13 +1504,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
     <col min="2" max="2" width="47.5" customWidth="1"/>
@@ -1496,46 +1534,54 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2462.45</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <f>IRR(B1:B3)</f>
-        <v>-0.00547205804775386</v>
+      <c r="B4">
+        <v>4370.92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <f>(1+B4)^52-1</f>
-        <v>-0.248232666010044</v>
+      <c r="B5" s="1">
+        <f>IRR(B1:B4)</f>
+        <v>-0.013510014698105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <f>ABS(SUM(B1:B2))</f>
-        <v>2484.12</v>
+      <c r="B6" s="2">
+        <f>(1+B5)^52-1</f>
+        <v>-0.507031241199025</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <f>(B3-ABS(B6))/ABS(B6)</f>
-        <v>-0.00872341110735394</v>
+      <c r="B7">
+        <f>ABS(SUM(B1:B3))</f>
+        <v>4484.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(B4-ABS(B7))/ABS(B7)</f>
+        <v>-0.0252446410889985</v>
       </c>
     </row>
   </sheetData>
